--- a/data/trans_camb/P57_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_R2-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>10.30361623298276</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8.226343788348126</v>
+        <v>8.226343788348132</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>8.983375661255232</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.517449061832995</v>
+        <v>5.595960643727449</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.610753435692121</v>
+        <v>4.915800952823107</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.210715538647138</v>
+        <v>6.290400868276313</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.51750912249252</v>
+        <v>15.4216184040221</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.57278404694969</v>
+        <v>11.73855995869441</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.9058908908314</v>
+        <v>11.86719809134788</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>0.4370873126129824</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.457160997410109</v>
+        <v>0.4571609974101092</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.4403217168044357</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1997686085977634</v>
+        <v>0.2237235690260164</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2343109198471494</v>
+        <v>0.2375205934386579</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2791621867460379</v>
+        <v>0.2864780148900999</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7206839232801963</v>
+        <v>0.7194289557115993</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7254174185862801</v>
+        <v>0.7362653214928974</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6305222095312589</v>
+        <v>0.619966639759187</v>
       </c>
     </row>
     <row r="10">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>18.39018016331457</v>
+        <v>18.39018016331456</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>17.39936254769007</v>
+        <v>17.39936254769008</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>17.89339653721773</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>15.03967947354485</v>
+        <v>15.13941120136504</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>14.21706044452652</v>
+        <v>14.59076531963273</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15.55315841017861</v>
+        <v>15.88252586695568</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.60577386848035</v>
+        <v>21.54853160774347</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20.03516935065343</v>
+        <v>20.04074559595616</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.93075746376614</v>
+        <v>20.23443539283742</v>
       </c>
     </row>
     <row r="13">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.5974263798659866</v>
+        <v>0.5974263798659861</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.6128618910178681</v>
+        <v>0.6128618910178684</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.6042538994008934</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.4711856682636746</v>
+        <v>0.462597763225415</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4783825787148643</v>
+        <v>0.4880609846376503</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5037315468602255</v>
+        <v>0.5162316538318515</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.745557655318867</v>
+        <v>0.7385126562337133</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7488303121971106</v>
+        <v>0.7432243696324037</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.69498791503464</v>
+        <v>0.7091823444489995</v>
       </c>
     </row>
     <row r="16">
@@ -779,10 +779,10 @@
         <v>9.08523775603331</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>10.26618757896921</v>
+        <v>10.26618757896922</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9.65532965403656</v>
+        <v>9.655329654036565</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.321988916687036</v>
+        <v>3.106189759777831</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.534862142848692</v>
+        <v>4.562786744293127</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.370839334928086</v>
+        <v>5.630601688915708</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.37846225051789</v>
+        <v>15.44579628970763</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.85809942210943</v>
+        <v>15.62360986032402</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.54026190938098</v>
+        <v>13.47070265854839</v>
       </c>
     </row>
     <row r="19">
@@ -830,10 +830,10 @@
         <v>0.2360206499689367</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.2987040942055376</v>
+        <v>0.2987040942055378</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2650424500265817</v>
+        <v>0.2650424500265819</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.07902811847639192</v>
+        <v>0.07185785881664834</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1509215935636841</v>
+        <v>0.1198453325717434</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1359458491322995</v>
+        <v>0.1442267915770668</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4487002910415916</v>
+        <v>0.4444326762137107</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5076617491011809</v>
+        <v>0.5005281990210196</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3913229029818452</v>
+        <v>0.3971793762353061</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>15.9447543117669</v>
+        <v>15.94475431176689</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>14.89933006205028</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15.39718664343045</v>
+        <v>15.39718664343044</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>13.49153413794373</v>
+        <v>13.52728270440907</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>12.93799882153274</v>
+        <v>12.89039131935903</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13.82034943483229</v>
+        <v>13.85505944325111</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.73271877818682</v>
+        <v>18.45364823635359</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.83626573432099</v>
+        <v>16.87125130987751</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.03940341334735</v>
+        <v>16.98730620868518</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.5241633990652151</v>
+        <v>0.5241633990652148</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>0.564616832354383</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.5429290663638308</v>
+        <v>0.5429290663638305</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4252223352938911</v>
+        <v>0.4262985870801302</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4723141110863547</v>
+        <v>0.4694826858276442</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4707158133852126</v>
+        <v>0.4759981091388081</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.640883506070103</v>
+        <v>0.6303435458896328</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6701927854298917</v>
+        <v>0.6650098215242322</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6227820416864268</v>
+        <v>0.6150787621668767</v>
       </c>
     </row>
     <row r="28">
